--- a/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, ELVIRA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="495">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1501,6 +1501,24 @@
   </si>
   <si>
     <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/16-19/2023</t>
+  </si>
+  <si>
+    <t>10/20,23,24/2023</t>
+  </si>
+  <si>
+    <t>11/16,17/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>11/8-15/2023</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2384,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2427,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2491,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2551,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2617,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2680,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2778,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2837,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2902,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2945,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3020,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3206,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3272,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3330,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3396,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3452,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3527,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3570,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3636,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3674,7 +3692,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3790,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3835,7 +3853,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,8 +3919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K635"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K639" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K639"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4280,12 +4298,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K635"/>
+  <dimension ref="A2:K639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A546" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A549" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I562" sqref="I562"/>
+      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4466,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>114.85400000000004</v>
+        <v>111.35400000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4458,7 +4476,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>240.125</v>
+        <v>232.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16929,13 +16947,15 @@
       <c r="B562" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C562" s="13"/>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="39">
         <v>1</v>
@@ -16950,23 +16970,33 @@
       <c r="A563" s="40">
         <v>45200</v>
       </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="B563" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H563" s="39"/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H563" s="39">
+        <v>4</v>
+      </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="20" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
-      <c r="B564" s="20"/>
+      <c r="B564" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
@@ -16975,14 +17005,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H564" s="39"/>
+      <c r="H564" s="39">
+        <v>3</v>
+      </c>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
-      <c r="B565" s="20"/>
+      <c r="B565" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
@@ -16991,14 +17027,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H565" s="39"/>
+      <c r="H565" s="39">
+        <v>1</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="49">
+        <v>45225</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40"/>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -17007,16 +17051,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>2</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="20" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
-      <c r="B567" s="20"/>
+      <c r="B567" s="20" t="s">
+        <v>493</v>
+      </c>
       <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>6</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13" t="str">
@@ -17026,10 +17078,14 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="20" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>45261</v>
+      </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -17045,7 +17101,9 @@
       <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="48" t="s">
+        <v>489</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -17061,7 +17119,9 @@
       <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <v>45292</v>
+      </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -17077,7 +17137,9 @@
       <c r="K570" s="20"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
+      <c r="A571" s="40">
+        <v>45323</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -17093,7 +17155,9 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="40">
+        <v>45352</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -17109,7 +17173,9 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>45383</v>
+      </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -17125,7 +17191,9 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>45413</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -17141,7 +17209,9 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <v>45444</v>
+      </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -18101,20 +18171,84 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="41"/>
-      <c r="B635" s="15"/>
-      <c r="C635" s="42"/>
-      <c r="D635" s="43"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
-      <c r="F635" s="15"/>
+      <c r="F635" s="20"/>
       <c r="G635" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="43"/>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
-      <c r="J635" s="12"/>
-      <c r="K635" s="15"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="40"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="39"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="39"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="40"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="39"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="40"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="39"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="39"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="41"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="42"/>
+      <c r="D639" s="43"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="15"/>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="43"/>
+      <c r="I639" s="9"/>
+      <c r="J639" s="12"/>
+      <c r="K639" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18284,7 +18418,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>354.97900000000004</v>
+        <v>343.97900000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
